--- a/RawDataYahoo.xlsx
+++ b/RawDataYahoo.xlsx
@@ -1,35 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.c.rodrigues\Downloads\dev\utils\quantsTrade\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A08CD4-18B1-4014-86FE-D15881DF741F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YahooFX" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="YahooFX" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>AUD=X</t>
+  </si>
+  <si>
+    <t>BRL=X</t>
+  </si>
+  <si>
+    <t>MXN=X</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,13 +95,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -354,95 +410,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="1" max="3"/>
-    <col width="26.5703125" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AUD=X</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>43924.70833333334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.666810035705566</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>43926.49206366415</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BRL=X</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>43924.70833333334</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.315100193023682</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>43926.49206366415</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MXN=X</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>43924.70833333334</v>
-      </c>
-      <c r="C4" t="n">
-        <v>24.77425956726074</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>43926.49206366415</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>5.4078998565673828</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>5.4084000587463379</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5.403900146484375</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>5.4084000587463379</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>24.646579742431641</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>24.652999877929691</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>24.639999389648441</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>24.647100448608398</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1.5840200185775759</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1.5840200185775759</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1.584010004997253</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43944.323531366623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43943.708333333343</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1.584010004997253</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43944.323531366623</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>